--- a/_study/CljStudy/my-pjt/11.xlsx
+++ b/_study/CljStudy/my-pjt/11.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\_study\CljStudy\my-pjt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MK\mQ\_study\CljStudy\my-pjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC5E9F4-BA2B-4CBA-B09E-3811B8A5BD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="19200" yWindow="-192" windowWidth="12960" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>aa</t>
   </si>
   <si>
     <t>bb</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>cc</t>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -87,19 +85,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -411,57 +403,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6">
-        <v>1</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>2</v>
+      <c r="C4" s="5">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
